--- a/brand_segmant.xlsx
+++ b/brand_segmant.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Egypt\final_prica_calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEA7EC2-033A-4327-93FB-5612FCAB23DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09862B6B-D9A1-4E7F-9B4F-9371581160CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -194,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +219,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -252,6 +266,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -279,20 +307,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -307,13 +321,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC12B45E-B4EA-4C9F-B9AF-3951FBC9A573}" name="Table1" displayName="Table1" ref="A1:D49" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="A1:D49" xr:uid="{DC12B45E-B4EA-4C9F-B9AF-3951FBC9A573}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D2ED99F9-99DA-4A39-8FD0-25EAC69952F4}" name="Table136" displayName="Table136" ref="A1:D49" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:D49" xr:uid="{D2ED99F9-99DA-4A39-8FD0-25EAC69952F4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{37F6B9B3-4B94-470F-9E46-15832535EE8A}" name="Category"/>
-    <tableColumn id="2" xr3:uid="{59E2B63A-4F05-4F3D-83A1-859A4C0A1764}" name="helper"/>
-    <tableColumn id="3" xr3:uid="{ACB4BEF5-516B-44BB-B012-8BD54B5996B8}" name="Size"/>
-    <tableColumn id="4" xr3:uid="{A47A22C6-60F7-4A91-9A90-272D17C7E912}" name="Value"/>
+    <tableColumn id="1" xr3:uid="{59E2CAFC-07AC-42E6-A566-692483D41440}" name="Category"/>
+    <tableColumn id="2" xr3:uid="{DD4DF119-78F7-4CCF-9A00-BA51FCA5D567}" name="helper"/>
+    <tableColumn id="3" xr3:uid="{D73C6663-7A9C-4CF0-B1E7-9C78307BB07F}" name="Size"/>
+    <tableColumn id="4" xr3:uid="{7C49248B-D123-4AE1-8371-3A071C3213D9}" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -606,11 +620,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection sqref="A1:D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.44140625" customWidth="1"/>
     <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
@@ -618,7 +632,7 @@
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,7 +646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -646,7 +660,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -660,7 +674,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -674,7 +688,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -688,7 +702,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -702,7 +716,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -716,7 +730,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -730,7 +744,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -744,7 +758,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -758,7 +772,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -772,7 +786,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -786,7 +800,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -800,7 +814,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -811,10 +825,10 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -825,10 +839,10 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -839,10 +853,10 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -853,10 +867,10 @@
         <v>15</v>
       </c>
       <c r="D17">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -867,10 +881,10 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -881,10 +895,10 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>1.1599999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -895,10 +909,10 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -909,10 +923,10 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -923,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -937,10 +951,10 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -951,10 +965,10 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -965,10 +979,10 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -979,10 +993,10 @@
         <v>12</v>
       </c>
       <c r="D26">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -993,10 +1007,10 @@
         <v>13</v>
       </c>
       <c r="D27">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1007,10 +1021,10 @@
         <v>14</v>
       </c>
       <c r="D28">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1021,10 +1035,10 @@
         <v>15</v>
       </c>
       <c r="D29">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1038,7 +1052,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1052,7 +1066,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1063,10 +1077,10 @@
         <v>18</v>
       </c>
       <c r="D32">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -1077,10 +1091,10 @@
         <v>19</v>
       </c>
       <c r="D33">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -1091,10 +1105,10 @@
         <v>20</v>
       </c>
       <c r="D34">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -1105,10 +1119,10 @@
         <v>21</v>
       </c>
       <c r="D35">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -1119,10 +1133,10 @@
         <v>22</v>
       </c>
       <c r="D36">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -1133,10 +1147,10 @@
         <v>23</v>
       </c>
       <c r="D37">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1147,10 +1161,10 @@
         <v>12</v>
       </c>
       <c r="D38">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1161,10 +1175,10 @@
         <v>13</v>
       </c>
       <c r="D39">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1175,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="D40">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1189,10 +1203,10 @@
         <v>15</v>
       </c>
       <c r="D41">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1203,10 +1217,10 @@
         <v>16</v>
       </c>
       <c r="D42">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1217,10 +1231,10 @@
         <v>17</v>
       </c>
       <c r="D43">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1231,10 +1245,10 @@
         <v>18</v>
       </c>
       <c r="D44">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1245,10 +1259,10 @@
         <v>19</v>
       </c>
       <c r="D45">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -1259,10 +1273,10 @@
         <v>20</v>
       </c>
       <c r="D46">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -1273,10 +1287,10 @@
         <v>21</v>
       </c>
       <c r="D47">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>43</v>
       </c>
@@ -1287,10 +1301,10 @@
         <v>22</v>
       </c>
       <c r="D48">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -1301,7 +1315,7 @@
         <v>23</v>
       </c>
       <c r="D49">
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/brand_segmant.xlsx
+++ b/brand_segmant.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Egypt\final_prica_calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09862B6B-D9A1-4E7F-9B4F-9371581160CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDF1F94-9DD2-4F43-8BDB-BC91712103A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,16 +267,16 @@
   <dxfs count="3">
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color auto="1"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color auto="1"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -321,7 +321,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D2ED99F9-99DA-4A39-8FD0-25EAC69952F4}" name="Table136" displayName="Table136" ref="A1:D49" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D2ED99F9-99DA-4A39-8FD0-25EAC69952F4}" name="Table136" displayName="Table136" ref="A1:D49" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:D49" xr:uid="{D2ED99F9-99DA-4A39-8FD0-25EAC69952F4}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{59E2CAFC-07AC-42E6-A566-692483D41440}" name="Category"/>
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection sqref="A1:D49"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,139 +648,139 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>1.1499999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>1.1499999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>1.1499999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>1.1499999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>1.1499999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>1.1399999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>1.1399999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>1.1399999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>1.1200000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>1.1000000000000001</v>
@@ -788,13 +788,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12">
         <v>1.1000000000000001</v>
@@ -802,13 +802,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <v>1.1000000000000001</v>
@@ -816,16 +816,16 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>1.1499999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -833,13 +833,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>1.1499999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -847,13 +847,13 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>1.1499999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -861,13 +861,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>1.1499999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -875,55 +875,55 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>1.1399999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>1.1399999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20">
-        <v>1.1299999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21">
-        <v>1.1299999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -931,13 +931,13 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>1.1200000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -945,13 +945,13 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>1.1200000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -959,13 +959,13 @@
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>1.1200000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -973,237 +973,237 @@
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>1.1200000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>1.1599999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>1.1599999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D28">
-        <v>1.1599999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D29">
-        <v>1.1599999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D30">
-        <v>1.1499999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D31">
-        <v>1.1499999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D32">
-        <v>1.1399999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C33">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D33">
-        <v>1.1399999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C34">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D34">
-        <v>1.1399999999999999</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C35">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D35">
-        <v>1.1299999999999999</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D36">
-        <v>1.1299999999999999</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D37">
-        <v>1.1299999999999999</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C38">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C39">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D41">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1211,13 +1211,13 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D42">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1225,13 +1225,13 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C43">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D43">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1239,83 +1239,83 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C44">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D44">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C45">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D45">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C46">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D46">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C47">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D47">
-        <v>1.1499999999999999</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C48">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D48">
-        <v>1.1499999999999999</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C49">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D49">
-        <v>1.1499999999999999</v>
+        <v>1.07</v>
       </c>
     </row>
   </sheetData>
